--- a/Unique_Test_Cases.xlsx
+++ b/Unique_Test_Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HI\Desktop\IT23590144\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MalithPC\Downloads\excel 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E9D527-BCDC-4662-A2FA-EA7D1AE5780E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F5A5C3-B566-48C1-8100-C84358A5DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="0" windowWidth="11268" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="226">
   <si>
     <t>TC ID</t>
   </si>
@@ -52,70 +52,16 @@
     <t>Pos_Fun_0001</t>
   </si>
   <si>
-    <t>Basic present tense conversion</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>mama dhaen vaeda karanavaa</t>
-  </si>
-  <si>
-    <t>මම දැන් වැඩ කරනවා</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>• Present tense verb form converted accurately.
-• All word meanings preserved correctly.
-• Natural Sinhala sentence structure maintained.</t>
-  </si>
-  <si>
-    <t>• Daily language usage
-• Present tense
-• S (≤30 characters)
-• Accuracy validation</t>
-  </si>
-  <si>
     <t>Pos_Fun_0002</t>
   </si>
   <si>
-    <t>Simple question structure</t>
-  </si>
-  <si>
-    <t>oyaa mokakdha karanne?</t>
-  </si>
-  <si>
-    <t>ඔයා මොකක්ද කරන්නේ?</t>
-  </si>
-  <si>
-    <t>• Question word "mokakdha" (what) converted properly.
-• Question mark preserved at end.
-• Interrogative structure maintained correctly.</t>
-  </si>
-  <si>
-    <t>• Daily language usage
-• Interrogative (question)
-• S (≤30 characters)
-• Accuracy validation</t>
-  </si>
-  <si>
     <t>Pos_Fun_0003</t>
-  </si>
-  <si>
-    <t>Direct command conversion</t>
-  </si>
-  <si>
-    <t>issarahata yanna</t>
-  </si>
-  <si>
-    <t>ඉස්සරහට යන්න</t>
-  </si>
-  <si>
-    <t>• Imperative command structure correctly identified.
-• Direction word "issarahata" (forward) properly converted.
-• Command tone preserved.</t>
   </si>
   <si>
     <t>• Daily language usage
@@ -127,32 +73,7 @@
     <t>Pos_Fun_0004</t>
   </si>
   <si>
-    <t>Past action statement</t>
-  </si>
-  <si>
-    <t>api naetum panthi giyaa</t>
-  </si>
-  <si>
-    <t>• Past tense marker "giyaa" accurately converted.
-• Temporal reference "naetum" (last time) preserved.
-• Complete meaning retained.</t>
-  </si>
-  <si>
-    <t>• Daily language usage
-• Past tense
-• S (≤30 characters)
-• Accuracy validation</t>
-  </si>
-  <si>
     <t>Pos_Fun_0005</t>
-  </si>
-  <si>
-    <t>Future intention expression</t>
-  </si>
-  <si>
-    <t>• Future tense form "yamu" (will go) properly converted.
-• Time reference "iiLaGa" (next) accurately translated.
-• Future intention clearly expressed.</t>
   </si>
   <si>
     <t>• Daily language usage
@@ -164,20 +85,6 @@
     <t>Pos_Fun_0006</t>
   </si>
   <si>
-    <t>Greeting with time reference</t>
-  </si>
-  <si>
-    <t>kohomadha oyaata?</t>
-  </si>
-  <si>
-    <t>කොහොමද ඔයාට?</t>
-  </si>
-  <si>
-    <t>• Common greeting phrase converted naturally.
-• Question structure maintained.
-• Friendly tone preserved in translation.</t>
-  </si>
-  <si>
     <t>• Greeting / request / response
 • Interrogative (question)
 • S (≤30 characters)
@@ -839,15 +746,6 @@
 • Real-time output update behavior</t>
   </si>
   <si>
-    <t>අපි නැටුම් පන්ති ගියා</t>
-  </si>
-  <si>
-    <t>api iiLaGata yamu</t>
-  </si>
-  <si>
-    <t>අපි ඊළඟට යමු</t>
-  </si>
-  <si>
     <t>මට ඒක එපා</t>
   </si>
   <si>
@@ -870,6 +768,102 @@
   </si>
   <si>
     <t>meeka hariyata vaeda karanavaadha?a</t>
+  </si>
+  <si>
+    <t>ඔයාට කොහොමද?</t>
+  </si>
+  <si>
+    <t>Simple Greeting</t>
+  </si>
+  <si>
+    <t>ආයුබෝවන්</t>
+  </si>
+  <si>
+    <t>aayuboovan</t>
+  </si>
+  <si>
+    <t>• Correct greeting spelling
+• All word meanings preserved correctly.
+• Greeting style .</t>
+  </si>
+  <si>
+    <t>• Greeting
+• Simple tense
+• S (≤30 characters)
+• Accuracy validation</t>
+  </si>
+  <si>
+    <t>Question Greeting</t>
+  </si>
+  <si>
+    <t>oyaata kohomadha?</t>
+  </si>
+  <si>
+    <t>• Question word "kohomadha" (How) converted properly.
+• Question mark preserved at end.
+• Interrogative structure maintained correctly.</t>
+  </si>
+  <si>
+    <t>• Greeting
+• Interrogative (question)
+• S (≤30 characters)
+• Accuracy validation</t>
+  </si>
+  <si>
+    <t>Command Sentence</t>
+  </si>
+  <si>
+    <t>vahaama enna</t>
+  </si>
+  <si>
+    <t>වහාම එන්න</t>
+  </si>
+  <si>
+    <t>• Imperative command structure correctly identified.
+• Direction word "vahaama" (imediate) properly converted.
+• Command tone preserved.</t>
+  </si>
+  <si>
+    <t>Present Tense</t>
+  </si>
+  <si>
+    <t>mama gedhara yanavaa</t>
+  </si>
+  <si>
+    <t>මම ගෙදර යනවා</t>
+  </si>
+  <si>
+    <t>mama heta enavaa</t>
+  </si>
+  <si>
+    <t>Future Tense</t>
+  </si>
+  <si>
+    <t>මම හෙට එනවා</t>
+  </si>
+  <si>
+    <t>• Future tense marker "heta enavaa" accurately converted.
+• Future tense correct
+• Complete meaning retained.</t>
+  </si>
+  <si>
+    <t>• prasent tense form "yanavaa" (go) properly converted.
+• Accuracy validation
+• prasent intention clearly expressed.</t>
+  </si>
+  <si>
+    <t>Past Tense</t>
+  </si>
+  <si>
+    <t>mama giyaa</t>
+  </si>
+  <si>
+    <t>මම ගියා</t>
+  </si>
+  <si>
+    <t>• past tense correct
+• simple structure maintained.
+• Friendly tone preserved in translation.</t>
   </si>
 </sst>
 </file>
@@ -889,10 +883,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -904,12 +900,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -932,23 +928,520 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FF4472C4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -959,6 +1452,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A948E130-80F1-43BF-BFC1-604BF8D96462}" name="Table1" displayName="Table1" ref="A1:I36" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I36" xr:uid="{A948E130-80F1-43BF-BFC1-604BF8D96462}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{5D441A70-FE6A-4A94-8C67-0562F15B09BD}" name="TC ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{E6606677-4AB0-4D89-B43E-8CA25C9F39F9}" name="Test case name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6CDC66AF-30AA-49A3-80D6-C7E4DFCA2679}" name="Input length type" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B1F66699-16B9-41B7-8FEB-1508A9CB38B5}" name="Input" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{7EF67642-F147-478D-A5A1-827411B04AAE}" name="Expected output" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{2B234C16-8ECC-4494-892A-4623C1BF03A4}" name="Actual output" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{20DE3A82-0019-4C9C-A737-1716680DA140}" name="Status" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{9BCEE182-EE54-47D2-89C0-F2E0F0451220}" name="Accuracy justification/ Description of issue type" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{6AEAECBD-B8EE-404C-BE9B-911B6026A9DB}" name="What is covered by the test" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1248,1068 +1759,1071 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
     <col min="4" max="6" width="60" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="70" customWidth="1"/>
     <col min="9" max="9" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="H12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="H13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="H14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="H15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="H18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="H19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="H20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="H21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="H22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="H23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="H24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="H25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="H36" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="I36" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
